--- a/CMDB.xlsx
+++ b/CMDB.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="VMProvision" sheetId="1" r:id="rId1"/>
+    <sheet name="Decommission" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>OS</t>
   </si>
@@ -419,7 +420,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,4 +510,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="5" width="18.21875" customWidth="1"/>
+    <col min="11" max="11" width="32.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>4096</v>
+      </c>
+      <c r="I2">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>